--- a/data/trans_dic/P25A_9_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_9_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por mala circulación</t>
+          <t>Población con limitación por mala circulación (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -671,19 +720,19 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -691,7 +740,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,64%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,17 +750,47 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>56,64%</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -724,17 +803,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +823,72 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 88,99</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,87; 10,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,0; 5,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 88,99</t>
+          <t>0,46; 7,12</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,53</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 4,78</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 4,31</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 3,64</t>
         </is>
       </c>
     </row>
@@ -811,47 +920,77 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,2</t>
+          <t>0,0; 5,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,48</t>
+          <t>0,74; 7,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 3,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,91</t>
+          <t>0,55; 4,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,18; 68,85</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,28</t>
+          <t>0,48; 4,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,99; 5,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>1,64; 7,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 62,67</t>
+          <t>1,72; 9,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,92</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 1,94</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 4,34</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 5,77</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 4,82</t>
         </is>
       </c>
     </row>
@@ -936,7 +1105,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,52 +1115,82 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,13</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,98</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,47</t>
+          <t>0,28; 2,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,28</t>
+          <t>0,68; 4,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,72; 57,18</t>
+          <t>1,06; 4,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,21</t>
+          <t>1,81; 5,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,34</t>
+          <t>2,88; 8,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,01</t>
+          <t>5,12; 12,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,91; 55,3</t>
+          <t>4,56; 10,9</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 2,37</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 2,23</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 2,95</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 5,14</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 6,98</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 6,5</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,86</t>
+          <t>0,66; 3,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,3</t>
+          <t>0,27; 2,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,64</t>
+          <t>0,24; 2,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 71,69</t>
+          <t>1,17; 7,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,8</t>
+          <t>0,91; 5,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,51</t>
+          <t>0,74; 4,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,87</t>
+          <t>2,95; 8,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 45,02</t>
+          <t>2,62; 6,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,17</t>
+          <t>3,01; 7,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,87</t>
+          <t>3,01; 9,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,52</t>
+          <t>8,04; 16,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,27; 47,65</t>
+          <t>6,14; 12,61</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 5,36</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 3,88</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 4,42</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 6,68</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 9,93</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 7,68</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1505,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>61,64%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1261,17 +1550,47 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>12,2%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,72</t>
+          <t>0,83; 4,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,99</t>
+          <t>0,75; 4,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,46</t>
+          <t>2,41; 7,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,25; 81,41</t>
+          <t>4,04; 12,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,97</t>
+          <t>5,08; 13,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 9,97</t>
+          <t>3,81; 10,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,61</t>
+          <t>5,08; 12,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,42; 60,44</t>
+          <t>4,11; 10,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,51</t>
+          <t>2,65; 8,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,31</t>
+          <t>8,68; 17,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,42</t>
+          <t>8,78; 18,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,3; 62,14</t>
+          <t>7,63; 18,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 7,52</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 6,74</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 6,81</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,54; 13,45</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 14,04</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 12,72</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>13,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>9,14%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,56; 18,68</t>
+          <t>6,18; 19,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 16,29</t>
+          <t>5,08; 15,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 9,89</t>
+          <t>2,88; 10,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,91; 62,73</t>
+          <t>3,06; 12,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,98; 20,04</t>
+          <t>5,99; 17,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 15,29</t>
+          <t>4,75; 14,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,8; 20,37</t>
+          <t>10,45; 20,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,19; 38,44</t>
+          <t>7,56; 15,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 17,31</t>
+          <t>10,84; 23,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 13,92</t>
+          <t>6,22; 17,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 14,52</t>
+          <t>9,57; 20,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,71; 40,14</t>
+          <t>13,5; 27,03</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 17,5</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 13,82</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 15,94</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 13,52</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>9,11; 17,64</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>11,03; 19,91</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,8</t>
+          <t>1,52; 3,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,88</t>
+          <t>1,2; 2,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,51</t>
+          <t>1,15; 2,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33,95; 57,7</t>
+          <t>2,21; 4,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,99</t>
+          <t>3,2; 6,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,54</t>
+          <t>2,09; 4,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,59</t>
+          <t>4,46; 7,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,86; 40,74</t>
+          <t>3,52; 5,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,89</t>
+          <t>4,21; 6,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,0</t>
+          <t>5,66; 9,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,32</t>
+          <t>7,67; 11,19</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,75; 43,11</t>
+          <t>7,78; 11,66</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 5,12</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 3,87</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 4,64</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 6,39</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 7,95</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 7,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por mala circulación (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4396</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1299</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10813</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4396</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1299</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>10813</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2459</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14823</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>323; 4021</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1933</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2201; 33737</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15854</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>327; 3763</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>307; 3563</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2179; 34393</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10458</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8728</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21330</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10458</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8728</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2997</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>25221</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2915</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>361; 3532</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21137</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2803; 25588</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10144</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2492; 23031</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>465; 2814</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>749; 3395</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8631; 48008</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2880; 26323</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9833</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2258; 21551</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>932; 4215</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1382; 5461</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>10713; 51879</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13596</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16089</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22496</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2872</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>50695</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>16217</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16089</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>24238</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3399</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5282</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>57894</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14480</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9103</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1631</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2264</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1917; 19256</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4829; 29559</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7555; 31117</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12927; 37593</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1551; 4844</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2807; 6840</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32728; 78206</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6954; 33112</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7563; 31079</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14305; 41112</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1951; 5862</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>3396; 8074</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>37921; 90795</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11535</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5916</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6756</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1523</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13051</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34283</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28439</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>32647</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2971</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6278</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>59689</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>45818</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>34355</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>39403</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7801</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>72739</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4271; 25112</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1767; 16043</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1559; 16876</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>682; 4190</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>515; 2970</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4855; 27605</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20132; 55774</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17651; 45196</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19793; 49043</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1552; 4937</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4264; 8635</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>40627; 83418</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>29437; 71044</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>20076; 51253</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>25246; 57292</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3163; 7331</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>5636; 10899</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>51706; 100930</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10730</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10449</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22640</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31690</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41058</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34409</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25100</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6067</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5914</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>63045</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>51788</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>44858</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>47740</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>9376</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>9725</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>94735</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4105; 23750</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3781; 20820</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11891; 37192</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1785; 5483</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2280; 5948</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18860; 52256</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>25533; 65093</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20584; 53413</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13479; 42312</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4232; 8647</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4094; 8456</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>39437; 93023</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>33610; 74860</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>29712; 67727</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>30894; 68266</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>7012; 12507</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>7228; 12846</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>66679; 128732</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>58670</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>46758</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>28155</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2937</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4875</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>49821</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>104006</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>75907</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>107517</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7138</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8880</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>140498</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>162676</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>122665</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>135672</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>10075</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>13755</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>190319</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>33684; 104383</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>26892; 81130</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15248; 52936</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1424; 5637</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2746; 8019</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26882; 83762</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>73786; 146891</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>52185; 106559</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>75078; 164742</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3965; 10895</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6094; 13309</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>95324; 190836</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>119184; 218966</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>91256; 168513</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>99122; 194689</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>6429; 14911</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>9982; 19319</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>140388; 253317</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>83557</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>63123</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>59294</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9601</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>12850</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>105651</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>203400</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>161218</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>196488</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>21625</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>27935</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>346070</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>286957</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>224341</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>255782</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>31226</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>40785</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>451721</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>52417; 133508</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>41199; 98209</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>39570; 91866</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6662; 13758</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>9648; 18511</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>72011; 152038</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>159735; 255603</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>126813; 205998</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>151656; 250446</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>17102; 27334</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23207; 33837</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>278436; 417160</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>228285; 359783</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>178625; 273001</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>208071; 327247</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>25934; 38561</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>34569; 48001</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>372469; 538127</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
